--- a/emilin.xlsx
+++ b/emilin.xlsx
@@ -5,11 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="5km" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="10km" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="5km M40" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="10km M40" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="5km M20" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="10km M20" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,30 +23,102 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve">Piotr Herudziński 052</t>
   </si>
   <si>
-    <t xml:space="preserve">00:20:59 Kleszczów na Piątke 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">00:43:28 Bełchatowski Bieg Nocny 2022</t>
+    <t xml:space="preserve">00:20:59 Kleszczów na Piątke 5 km 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:43:28 Bełchatowski Bieg Nocny 10 km 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Jarosław Bugajski 053</t>
   </si>
   <si>
-    <t xml:space="preserve">00:44:40 Bieg Swiateczny Rusiec 2022</t>
+    <t xml:space="preserve">00:44:40 Bieg Swiateczny Rusiec 7,5 km 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tomasz Kucharski 058</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:51:09 Trail Kamieńsk 6 km 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafał Furczyński 059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
   </si>
   <si>
     <t xml:space="preserve">Robert Hoffmann 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Bełchatowska Piętnastka 2022</t>
+    <t xml:space="preserve">Bełchatowska Piętnastka 15 km 2022</t>
   </si>
   <si>
     <t xml:space="preserve">Zbigniew Jagusiak 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rafał Freus 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bełchatowska Piętnastka 5 km 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grzegorz Kaniowski 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Łukasz Popielawski 056</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:50:36 Trail Kamieńsk 6 km 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert Rabenda 060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:29:45 Piotrkowski Ćwierćpółmaraton 5,2 km 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Łukasz Motylski 061</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:24:49 Piatka Szyta Na Miarę 5 km 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamil Gorzelak 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:16:39 Bełchatowska Piętnastka 15 km 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paweł Musiał 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:44:40 Trail Kamieńsk 6 km 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patryk Marjan 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01:08:34 Bełchatowska Piętnastka 15 km 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Łukasz Michalski 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:24:13 M1 Bieg Sylwestrowy 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paweł Michałowski 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:41:24 Bieg Świateczny Rusiec 7,5 km 2022</t>
   </si>
 </sst>
 </file>
@@ -55,7 +129,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -83,7 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF81D41A"/>
+      <color rgb="FF3DEB3D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -91,6 +165,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00A933"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00AE00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -138,7 +219,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -152,6 +233,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -169,13 +258,13 @@
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
       <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF3DEB3D"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF00AE00"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
@@ -208,7 +297,7 @@
       <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF81D41A"/>
+      <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
@@ -232,17 +321,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="33.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.46"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -262,6 +351,22 @@
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -280,41 +385,185 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.86"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="n">
+        <v>0.0513310185185185</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>0.0499189814814815</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="n">
+        <v>0.0159606481481481</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="n">
+        <v>0.0492476851851852</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.59"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="2" t="n">
-        <v>0.0513310185185185</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>0.0499189814814815</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.17"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/emilin.xlsx
+++ b/emilin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="5km M40" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t xml:space="preserve">Piotr Herudziński 052</t>
   </si>
@@ -52,6 +52,21 @@
     <t xml:space="preserve">-</t>
   </si>
   <si>
+    <t xml:space="preserve">Rafał Kowalski  063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:59:52 Bełchatowski Bieg Nocny 2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Krzysztof Jaśkiewicz 066</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:24:46 Piątka Szyta Na miarę 2022</t>
+  </si>
+  <si>
     <t xml:space="preserve">Robert Hoffmann 01</t>
   </si>
   <si>
@@ -88,6 +103,12 @@
     <t xml:space="preserve">00:24:49 Piatka Szyta Na Miarę 5 km 2022</t>
   </si>
   <si>
+    <t xml:space="preserve">Gabor Pietrasik 062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">00:46:15 Bieg ul. Piotrkowską 2018</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kamil Gorzelak 03</t>
   </si>
   <si>
@@ -110,9 +131,6 @@
   </si>
   <si>
     <t xml:space="preserve">00:24:13 M1 Bieg Sylwestrowy 2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">???</t>
   </si>
   <si>
     <t xml:space="preserve">Paweł Michałowski 08</t>
@@ -219,7 +237,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -241,6 +259,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -321,15 +343,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.46"/>
   </cols>
@@ -362,11 +384,30 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -391,54 +432,54 @@
       <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B1" s="2" t="n">
         <v>0.0513310185185185</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>0.0499189814814815</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B3" s="5" t="n">
         <v>0.0159606481481481</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="n">
         <v>0.0492476851851852</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -457,13 +498,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.59"/>
@@ -471,26 +512,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>20</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -511,11 +560,11 @@
   </sheetPr>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.17"/>
@@ -523,45 +572,45 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/emilin.xlsx
+++ b/emilin.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="5km M40" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t xml:space="preserve">Piotr Herudziński 052</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t xml:space="preserve">Grzegorz Kaniowski 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarosław Anioł 13</t>
   </si>
   <si>
     <t xml:space="preserve">Łukasz Popielawski 056</t>
@@ -237,7 +240,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,10 +262,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -345,13 +344,13 @@
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="39.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="35.46"/>
   </cols>
@@ -426,13 +425,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31.86"/>
@@ -479,6 +478,17 @@
         <v>0.0492476851851852</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="n">
+        <v>0.0522106481481481</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>15</v>
       </c>
     </row>
@@ -504,7 +514,7 @@
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.59"/>
@@ -512,34 +522,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
-        <v>26</v>
+      <c r="A4" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -564,7 +574,7 @@
       <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.17"/>
@@ -572,34 +582,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -607,10 +617,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
